--- a/backend/lottery_results.xlsx
+++ b/backend/lottery_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,24 +456,88 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>来了</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>一等奖</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-27 10:35:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>shdhhdh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ashsh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>一等奖</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-28 15:57:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>来了</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>规范化</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>一等奖</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-01-27 10:35:54</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-28 16:05:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>静</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>一等奖</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-28 18:14:29</t>
         </is>
       </c>
     </row>
